--- a/docs/jig/routing/business-rule.xlsx
+++ b/docs/jig/routing/business-rule.xlsx
@@ -241,9 +241,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -304,16 +304,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="51.59765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.71484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.75390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.87890625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="56.34375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.28125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="53.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.66796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="59.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -522,14 +522,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.359375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.32421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.7421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="38.35546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.00390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="40.58984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -598,13 +598,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.2265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.6953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.0625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.19921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -667,18 +667,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.62109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.4453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="51.59765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.24609375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.5859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.4296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.71484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="53.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.12890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/jig/routing/business-rule.xlsx
+++ b/docs/jig/routing/business-rule.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
   <si>
     <t/>
   </si>
@@ -40,12 +40,21 @@
     <t>com.practicalddd.cargotracker.routing.domain.model.aggregates</t>
   </si>
   <si>
+    <t>集約</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.routing.domain.model.entities</t>
   </si>
   <si>
+    <t>コマンド</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.routing.domain.model.valueobjects</t>
   </si>
   <si>
+    <t>値オブジェクト</t>
+  </si>
+  <si>
     <t>クラス名</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>Voyage</t>
   </si>
   <si>
+    <t>航海</t>
+  </si>
+  <si>
     <t>不明</t>
   </si>
   <si>
@@ -85,13 +97,16 @@
     <t>CarrierMovement</t>
   </si>
   <si>
+    <t>移動機器</t>
+  </si>
+  <si>
     <t>[CargoRoutingController, Schedule]</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Location class represented by a unique 5-diigit UN Location code.</t>
+    <t>位置</t>
   </si>
   <si>
     <t>文字列</t>
@@ -103,7 +118,7 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>A Voyage schedule</t>
+    <t>航海予定</t>
   </si>
   <si>
     <t>コレクション</t>
@@ -113,6 +128,9 @@
   </si>
   <si>
     <t>VoyageNumber</t>
+  </si>
+  <si>
+    <t>航海番号</t>
   </si>
   <si>
     <t>フィールドの型</t>
@@ -262,7 +280,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>1.0</v>
@@ -270,10 +288,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>1.0</v>
@@ -281,10 +299,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>3.0</v>
@@ -306,7 +324,7 @@
   <cols>
     <col min="1" max="1" width="54.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.28125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="53.21875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
@@ -321,31 +339,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -353,13 +371,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>0.0</v>
@@ -377,21 +395,21 @@
         <v>0</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>1.0</v>
@@ -409,21 +427,21 @@
         <v>0</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>1.0</v>
@@ -441,21 +459,21 @@
         <v>0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>1.0</v>
@@ -473,21 +491,21 @@
         <v>0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>1.0</v>
@@ -505,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +542,7 @@
   <cols>
     <col min="1" max="1" width="54.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.00390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.9609375" customWidth="true" bestFit="true"/>
@@ -537,51 +555,51 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -612,22 +630,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -635,22 +653,22 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +689,7 @@
     <col min="2" max="2" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.71484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.9296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="53.21875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
@@ -686,54 +704,54 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>0.0</v>
@@ -754,24 +772,24 @@
         <v>0</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>0.0</v>
@@ -792,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
